--- a/data/case1/18/Qlm2_3.xlsx
+++ b/data/case1/18/Qlm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.072153755303247635</v>
+        <v>-0.090022772380280003</v>
       </c>
       <c r="B1" s="0">
-        <v>0.071634190078391669</v>
+        <v>0.089515123139200625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.085739153215254049</v>
+        <v>-0.067412495710039266</v>
       </c>
       <c r="B2" s="0">
-        <v>0.084362882898819436</v>
+        <v>0.065276653944239094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.034645887819905852</v>
+        <v>-0.038178160805257377</v>
       </c>
       <c r="B3" s="0">
-        <v>0.034257071462143074</v>
+        <v>0.037790340319981297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.026257071488235084</v>
+        <v>-0.029790340394653114</v>
       </c>
       <c r="B4" s="0">
-        <v>0.025909527745568539</v>
+        <v>0.029444358003174464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.02290952775746824</v>
+        <v>-0.026444358036353144</v>
       </c>
       <c r="B5" s="0">
-        <v>0.021737572180190234</v>
+        <v>0.025275606112650451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.03532017045207958</v>
+        <v>-0.0072071128811366236</v>
       </c>
       <c r="B6" s="0">
-        <v>0.035046438121931089</v>
+        <v>0.0070731017464211732</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.025046438155071904</v>
+        <v>0.0029268981609207323</v>
       </c>
       <c r="B7" s="0">
-        <v>0.024991845283471648</v>
+        <v>-0.0029475553045026359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014991845317440244</v>
+        <v>0.012947555212585726</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014925552446699797</v>
+        <v>-0.012969084038620515</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.012925552457899947</v>
+        <v>0.014969084017854684</v>
       </c>
       <c r="B9" s="0">
-        <v>0.012880185335652161</v>
+        <v>-0.014985368582599801</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.01088018534734303</v>
+        <v>0.016985368565189063</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01087839853272321</v>
+        <v>-0.016985081536425639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0078783985472252738</v>
+        <v>0.019985081510720981</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0078759144189595176</v>
+        <v>-0.019987389303637748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.004375914435028605</v>
+        <v>0.023487389274704729</v>
       </c>
       <c r="B12" s="0">
-        <v>0.004365470002003935</v>
+        <v>-0.023532951276556524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.00086547001819514691</v>
+        <v>0.027032951254192028</v>
       </c>
       <c r="B13" s="0">
-        <v>0.00086457834228603758</v>
+        <v>-0.027074088015128339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0071354216284849059</v>
+        <v>-0.0080467506084742624</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0071388927295972238</v>
+        <v>0.0080443263646250429</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0081388927210506168</v>
+        <v>-0.0080514206072859196</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0081477525015536401</v>
+        <v>0.0080335760280014767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.006034373964892481</v>
+        <v>-0.0060335760357528301</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060035974217140797</v>
+        <v>0.0060032019058380293</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040035974331464885</v>
+        <v>-0.0040032019142728359</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999826143551</v>
+        <v>0.003999999974335644</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.020104963119074171</v>
+        <v>-0.016102627481025422</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.020252846515987244</v>
+        <v>0.01609118158052425</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012092094680956844</v>
+        <v>-0.012091181615581093</v>
       </c>
       <c r="B19" s="0">
-        <v>0.01201706021190363</v>
+        <v>0.012016204786439388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080170602245566158</v>
+        <v>-0.0080162048242637951</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057040983962935</v>
+        <v>0.0080056328814901434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057041111989378</v>
+        <v>-0.0040056329197684093</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999870774516</v>
+        <v>0.00399999996136291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045716995092821122</v>
+        <v>-0.045718770921492791</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045502022803665554</v>
+        <v>0.045503712374685534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040502022821470085</v>
+        <v>-0.040503712425364213</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099685478431901</v>
+        <v>0.040099858889362849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099685541645762</v>
+        <v>-0.020099859073099857</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999935925494</v>
+        <v>0.019999999813501201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.01558259826221331</v>
+        <v>-0.016068493257209937</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.015623823448789764</v>
+        <v>0.016010214126213285</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.018123823437811382</v>
+        <v>-0.013510214156370992</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.018174558355731563</v>
+        <v>0.013437827808308711</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.036233844320648689</v>
+        <v>-0.010937827838752856</v>
       </c>
       <c r="B27" s="0">
-        <v>0.035751140077604937</v>
+        <v>0.010524062222947439</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.033751140088813969</v>
+        <v>-0.0085240622502222863</v>
       </c>
       <c r="B28" s="0">
-        <v>0.033439348813594449</v>
+        <v>0.008259801209953288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.026439348840757049</v>
+        <v>-0.0012598012802262915</v>
       </c>
       <c r="B29" s="0">
-        <v>0.026360663009902474</v>
+        <v>0.0011932048225959946</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.033639336807609777</v>
+        <v>-0.021170121357429128</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.033826874372820281</v>
+        <v>0.021022599387158891</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.040826874346800324</v>
+        <v>-0.014022599460368212</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.040884659986046401</v>
+        <v>0.01400099061079807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.050884659951956124</v>
+        <v>-0.0040009907099136655</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.050979686200490093</v>
+        <v>0.0039999999518194329</v>
       </c>
     </row>
   </sheetData>
